--- a/Data/EC/NIT-9004213930.xlsx
+++ b/Data/EC/NIT-9004213930.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F46BFC4-02A1-4F71-9520-D9C5FEECDA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9724F2D-4ED1-46E9-814E-B608A416D4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45C61F7F-B547-498C-9217-130349B996F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{35078A40-E3A1-4780-865C-554CC9C82C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,21 +65,66 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1048441334</t>
+  </si>
+  <si>
+    <t>JOSE LUIS CABARCAS FIGUEROA</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1001900571</t>
+  </si>
+  <si>
+    <t>ALVARO LUIS MARTINEZ OTERO</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1048604439</t>
+  </si>
+  <si>
+    <t>XAVIER VILLA MARANTO</t>
+  </si>
+  <si>
+    <t>9185710</t>
+  </si>
+  <si>
+    <t>JUAN MIGUEL MERCADO RAMIREZ</t>
+  </si>
+  <si>
+    <t>73155991</t>
+  </si>
+  <si>
+    <t>ROMAN MENDOZA HERRERA</t>
+  </si>
+  <si>
     <t>1001977451</t>
   </si>
   <si>
     <t>PABLO CABALLERO CUADROS</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>73155991</t>
-  </si>
-  <si>
-    <t>ROMAN MENDOZA HERRERA</t>
-  </si>
-  <si>
     <t>1002197416</t>
   </si>
   <si>
@@ -92,88 +137,43 @@
     <t>JACINTO RODRIGUEZ TORRES</t>
   </si>
   <si>
-    <t>1001900571</t>
-  </si>
-  <si>
-    <t>ALVARO LUIS MARTINEZ OTERO</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1048441334</t>
-  </si>
-  <si>
-    <t>JOSE LUIS CABARCAS FIGUEROA</t>
-  </si>
-  <si>
-    <t>9185710</t>
-  </si>
-  <si>
-    <t>JUAN MIGUEL MERCADO RAMIREZ</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
     <t>1002258421</t>
   </si>
   <si>
     <t>JAIDER MERCADO ORTIZ</t>
-  </si>
-  <si>
-    <t>1048604439</t>
-  </si>
-  <si>
-    <t>XAVIER VILLA MARANTO</t>
-  </si>
-  <si>
-    <t>2107</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C28DE9-4C53-7E89-9151-794AD5CED504}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8732A518-139D-5628-C5C5-72E2C54F5412}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545C4C31-AD55-4E39-986E-CD6C72CDD175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1234E7-9402-4FF9-8885-D157C6E3ECFB}">
   <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1116,10 +1116,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>7467</v>
+        <v>36667</v>
       </c>
       <c r="G16" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1130,19 +1130,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>3733</v>
+        <v>44000</v>
       </c>
       <c r="G17" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1153,19 +1153,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>3733</v>
+        <v>27867</v>
       </c>
       <c r="G18" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1176,16 +1176,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F19" s="18">
-        <v>7467</v>
+        <v>56000</v>
       </c>
       <c r="G19" s="18">
         <v>1400000</v>
@@ -1199,16 +1199,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>7467</v>
+        <v>56000</v>
       </c>
       <c r="G20" s="18">
         <v>1400000</v>
@@ -1222,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>56000</v>
@@ -1245,13 +1245,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>56000</v>
@@ -1277,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>56000</v>
+        <v>7467</v>
       </c>
       <c r="G23" s="18">
         <v>1400000</v>
@@ -1291,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>56000</v>
+        <v>30284</v>
       </c>
       <c r="G24" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1314,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
-        <v>56000</v>
+        <v>33918</v>
       </c>
       <c r="G25" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1337,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>56000</v>
+        <v>30284</v>
       </c>
       <c r="G26" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1360,19 +1360,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
-        <v>56000</v>
+        <v>33918</v>
       </c>
       <c r="G27" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1383,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>56000</v>
@@ -1406,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>56000</v>
@@ -1429,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F30" s="18">
         <v>56000</v>
@@ -1452,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F31" s="18">
         <v>56000</v>
@@ -1475,16 +1475,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>56000</v>
+        <v>3733</v>
       </c>
       <c r="G32" s="18">
         <v>1400000</v>
@@ -1498,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F33" s="18">
         <v>56000</v>
@@ -1521,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>56000</v>
@@ -1544,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F35" s="18">
         <v>56000</v>
@@ -1567,13 +1567,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F36" s="18">
         <v>56000</v>
@@ -1590,16 +1590,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F37" s="18">
-        <v>56000</v>
+        <v>7467</v>
       </c>
       <c r="G37" s="18">
         <v>1400000</v>
@@ -1613,19 +1613,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F38" s="18">
         <v>56000</v>
       </c>
       <c r="G38" s="18">
-        <v>1400000</v>
+        <v>877803</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1636,19 +1636,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F39" s="18">
         <v>56000</v>
       </c>
       <c r="G39" s="18">
-        <v>1400000</v>
+        <v>877803</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1659,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F40" s="18">
         <v>56000</v>
       </c>
       <c r="G40" s="18">
-        <v>1400000</v>
+        <v>877803</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1682,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F41" s="18">
         <v>56000</v>
       </c>
       <c r="G41" s="18">
-        <v>1400000</v>
+        <v>877803</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1705,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F42" s="18">
-        <v>56000</v>
+        <v>3733</v>
       </c>
       <c r="G42" s="18">
-        <v>1400000</v>
+        <v>877803</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1728,16 +1728,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F43" s="18">
-        <v>56000</v>
+        <v>46667</v>
       </c>
       <c r="G43" s="18">
         <v>1400000</v>
@@ -1751,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F44" s="18">
         <v>56000</v>
@@ -1774,13 +1774,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F45" s="18">
         <v>56000</v>
@@ -1797,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F46" s="18">
         <v>56000</v>
@@ -1820,13 +1820,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F47" s="18">
         <v>56000</v>
@@ -1843,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F48" s="18">
         <v>56000</v>
@@ -1866,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F49" s="18">
         <v>56000</v>
@@ -1889,13 +1889,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F50" s="18">
         <v>56000</v>
@@ -1912,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F51" s="18">
         <v>56000</v>
@@ -1935,13 +1935,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F52" s="18">
         <v>56000</v>
@@ -1958,19 +1958,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F53" s="18">
-        <v>27867</v>
+        <v>56000</v>
       </c>
       <c r="G53" s="18">
-        <v>1100000</v>
+        <v>1400000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1981,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F54" s="18">
-        <v>33918</v>
+        <v>56000</v>
       </c>
       <c r="G54" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2004,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F55" s="18">
-        <v>33918</v>
+        <v>56000</v>
       </c>
       <c r="G55" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2027,13 +2027,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F56" s="18">
         <v>56000</v>
@@ -2050,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F57" s="18">
-        <v>33918</v>
+        <v>56000</v>
       </c>
       <c r="G57" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F58" s="18">
-        <v>44000</v>
+        <v>56000</v>
       </c>
       <c r="G58" s="18">
-        <v>1100000</v>
+        <v>1400000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2096,19 +2096,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F59" s="18">
-        <v>30284</v>
+        <v>56000</v>
       </c>
       <c r="G59" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2119,16 +2119,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F60" s="18">
-        <v>46667</v>
+        <v>56000</v>
       </c>
       <c r="G60" s="18">
         <v>1400000</v>
@@ -2142,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F61" s="18">
-        <v>30284</v>
+        <v>7467</v>
       </c>
       <c r="G61" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F62" s="18">
         <v>30284</v>
       </c>
       <c r="G62" s="18">
-        <v>908526</v>
+        <v>1269600</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2188,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F63" s="24">
-        <v>36667</v>
+        <v>33918</v>
       </c>
       <c r="G63" s="24">
-        <v>1100000</v>
+        <v>1269600</v>
       </c>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>

--- a/Data/EC/NIT-9004213930.xlsx
+++ b/Data/EC/NIT-9004213930.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9724F2D-4ED1-46E9-814E-B608A416D4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7EF59CC-FE17-4604-85DB-8FE81846F19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{35078A40-E3A1-4780-865C-554CC9C82C60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C1A1F84-3E0C-4248-A571-7FE2010CDECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,115 +65,115 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1001900571</t>
+  </si>
+  <si>
+    <t>ALVARO LUIS MARTINEZ OTERO</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>73155991</t>
+  </si>
+  <si>
+    <t>ROMAN MENDOZA HERRERA</t>
+  </si>
+  <si>
+    <t>1001977451</t>
+  </si>
+  <si>
+    <t>PABLO CABALLERO CUADROS</t>
+  </si>
+  <si>
+    <t>1002197416</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL ORTEGA LUNA</t>
+  </si>
+  <si>
+    <t>73352226</t>
+  </si>
+  <si>
+    <t>JACINTO RODRIGUEZ TORRES</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>1048441334</t>
   </si>
   <si>
     <t>JOSE LUIS CABARCAS FIGUEROA</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>1048604439</t>
+  </si>
+  <si>
+    <t>XAVIER VILLA MARANTO</t>
+  </si>
+  <si>
+    <t>9185710</t>
+  </si>
+  <si>
+    <t>JUAN MIGUEL MERCADO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1002258421</t>
+  </si>
+  <si>
+    <t>JAIDER MERCADO ORTIZ</t>
+  </si>
+  <si>
     <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1001900571</t>
-  </si>
-  <si>
-    <t>ALVARO LUIS MARTINEZ OTERO</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1048604439</t>
-  </si>
-  <si>
-    <t>XAVIER VILLA MARANTO</t>
-  </si>
-  <si>
-    <t>9185710</t>
-  </si>
-  <si>
-    <t>JUAN MIGUEL MERCADO RAMIREZ</t>
-  </si>
-  <si>
-    <t>73155991</t>
-  </si>
-  <si>
-    <t>ROMAN MENDOZA HERRERA</t>
-  </si>
-  <si>
-    <t>1001977451</t>
-  </si>
-  <si>
-    <t>PABLO CABALLERO CUADROS</t>
-  </si>
-  <si>
-    <t>1002197416</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL ORTEGA LUNA</t>
-  </si>
-  <si>
-    <t>73352226</t>
-  </si>
-  <si>
-    <t>JACINTO RODRIGUEZ TORRES</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1002258421</t>
-  </si>
-  <si>
-    <t>JAIDER MERCADO ORTIZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -272,7 +272,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -285,9 +287,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -487,23 +487,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,10 +531,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8732A518-139D-5628-C5C5-72E2C54F5412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C689B2D-59AA-9F4B-D5E8-2F4159759961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1234E7-9402-4FF9-8885-D157C6E3ECFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E62325-D59E-45BA-9F9E-298B42E149E8}">
   <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1116,10 +1116,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36667</v>
+        <v>7467</v>
       </c>
       <c r="G16" s="18">
-        <v>1100000</v>
+        <v>1400000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1130,19 +1130,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>44000</v>
+        <v>3733</v>
       </c>
       <c r="G17" s="18">
-        <v>1100000</v>
+        <v>1400000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1153,19 +1153,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>27867</v>
+        <v>7467</v>
       </c>
       <c r="G18" s="18">
-        <v>1100000</v>
+        <v>1400000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1176,16 +1176,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>56000</v>
+        <v>3733</v>
       </c>
       <c r="G19" s="18">
         <v>1400000</v>
@@ -1199,16 +1199,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>56000</v>
+        <v>7467</v>
       </c>
       <c r="G20" s="18">
         <v>1400000</v>
@@ -1222,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>56000</v>
@@ -1245,13 +1245,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>56000</v>
@@ -1277,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>7467</v>
+        <v>56000</v>
       </c>
       <c r="G23" s="18">
         <v>1400000</v>
@@ -1291,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>30284</v>
+        <v>56000</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1314,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>33918</v>
+        <v>56000</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1337,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>30284</v>
+        <v>56000</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1360,19 +1360,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>33918</v>
+        <v>56000</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1383,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>56000</v>
@@ -1406,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>56000</v>
@@ -1429,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>56000</v>
@@ -1452,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>56000</v>
@@ -1475,16 +1475,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>3733</v>
+        <v>56000</v>
       </c>
       <c r="G32" s="18">
         <v>1400000</v>
@@ -1498,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
         <v>56000</v>
@@ -1521,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>56000</v>
@@ -1544,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>56000</v>
@@ -1567,13 +1567,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>56000</v>
@@ -1590,16 +1590,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>7467</v>
+        <v>56000</v>
       </c>
       <c r="G37" s="18">
         <v>1400000</v>
@@ -1613,19 +1613,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
         <v>56000</v>
       </c>
       <c r="G38" s="18">
-        <v>877803</v>
+        <v>1400000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1636,19 +1636,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
         <v>56000</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>1400000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1659,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>56000</v>
       </c>
       <c r="G40" s="18">
-        <v>877803</v>
+        <v>1400000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1682,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>56000</v>
       </c>
       <c r="G41" s="18">
-        <v>877803</v>
+        <v>1400000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1705,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
-        <v>3733</v>
+        <v>56000</v>
       </c>
       <c r="G42" s="18">
-        <v>877803</v>
+        <v>1400000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1728,16 +1728,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>46667</v>
+        <v>56000</v>
       </c>
       <c r="G43" s="18">
         <v>1400000</v>
@@ -1751,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>56000</v>
@@ -1774,13 +1774,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
         <v>56000</v>
@@ -1797,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>56000</v>
@@ -1820,13 +1820,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
         <v>56000</v>
@@ -1843,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F48" s="18">
         <v>56000</v>
@@ -1866,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F49" s="18">
         <v>56000</v>
@@ -1889,13 +1889,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>56000</v>
@@ -1912,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F51" s="18">
         <v>56000</v>
@@ -1935,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F52" s="18">
-        <v>56000</v>
+        <v>27867</v>
       </c>
       <c r="G52" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1958,13 +1958,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F53" s="18">
         <v>56000</v>
@@ -1981,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F54" s="18">
-        <v>56000</v>
+        <v>44000</v>
       </c>
       <c r="G54" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2004,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F55" s="18">
-        <v>56000</v>
+        <v>33918</v>
       </c>
       <c r="G55" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2027,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F56" s="18">
-        <v>56000</v>
+        <v>33918</v>
       </c>
       <c r="G56" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2050,13 +2050,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F57" s="18">
         <v>56000</v>
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F58" s="18">
-        <v>56000</v>
+        <v>33918</v>
       </c>
       <c r="G58" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2096,19 +2096,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F59" s="18">
-        <v>56000</v>
+        <v>36667</v>
       </c>
       <c r="G59" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F60" s="18">
-        <v>56000</v>
+        <v>30284</v>
       </c>
       <c r="G60" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2142,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F61" s="18">
-        <v>7467</v>
+        <v>30284</v>
       </c>
       <c r="G61" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F62" s="18">
-        <v>30284</v>
+        <v>46667</v>
       </c>
       <c r="G62" s="18">
-        <v>1269600</v>
+        <v>1400000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2188,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="E63" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="22" t="s">
-        <v>12</v>
-      </c>
       <c r="F63" s="24">
-        <v>33918</v>
+        <v>30284</v>
       </c>
       <c r="G63" s="24">
-        <v>1269600</v>
+        <v>908526</v>
       </c>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
